--- a/2nd_phase/additional_data/ufe_20.xlsx
+++ b/2nd_phase/additional_data/ufe_20.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>ufe_20</t>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>monthly</t>
   </si>
 </sst>
 </file>
@@ -28,10 +31,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -42,6 +45,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -51,7 +69,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,14 +82,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -82,14 +92,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,6 +105,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -118,14 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -142,6 +144,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -157,30 +167,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,31 +204,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,49 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,91 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +403,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +455,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -489,7 +492,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -507,130 +510,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,116 +960,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>44166</v>
       </c>
       <c r="B2">
         <v>25.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>44136</v>
       </c>
       <c r="B3">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>44105</v>
       </c>
       <c r="B4">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>44075</v>
       </c>
       <c r="B5">
         <v>14.33</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>44044</v>
       </c>
       <c r="B6">
         <v>11.53</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>44013</v>
       </c>
       <c r="B7">
         <v>8.33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>43983</v>
       </c>
       <c r="B8">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>43952</v>
       </c>
       <c r="B9">
         <v>5.53</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>43922</v>
       </c>
       <c r="B10">
         <v>6.71</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43891</v>
       </c>
       <c r="B11">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>43862</v>
       </c>
       <c r="B12">
         <v>9.26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>43831</v>
       </c>
       <c r="B13">
         <v>8.84</v>
+      </c>
+      <c r="C13">
+        <v>1.84</v>
       </c>
     </row>
   </sheetData>
